--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_no_newsample_2ndstudy.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_no_newsample_2ndstudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E2A940-2A72-E246-9275-5021D02A9DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96E66A-5D06-1F42-89B2-0A0B5BBC71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10860" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="Tissues" sheetId="4" r:id="rId10"/>
     <sheet name="Compounds" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2006,9 +2006,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>A description</t>
-  </si>
-  <si>
     <t>Default Sequence</t>
   </si>
   <si>
@@ -2673,6 +2670,9 @@
   </si>
   <si>
     <t>DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/small_obob_maven_6eaas_serum.xlsx</t>
+  </si>
+  <si>
+    <t>ob/ob and wildtype littermates were fasted 7 hours and infused with tracers</t>
   </si>
 </sst>
 </file>
@@ -3517,7 +3517,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
@@ -3533,7 +3534,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>115</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3920,714 +3921,714 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>210</v>
       </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>141</v>
-      </c>
       <c r="D31" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="D33" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>275</v>
       </c>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="21" t="s">
         <v>282</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="D42" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D44" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>302</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="D46" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>309</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="21" t="s">
         <v>313</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="D50" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="D52" s="21" t="s">
         <v>328</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4668,25 +4669,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4694,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="19">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="19">
         <v>6</v>
@@ -4870,19 +4871,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4890,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="15">
         <v>23.2</v>
@@ -24310,7 +24311,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>107</v>
@@ -24330,10 +24331,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -24342,7 +24343,7 @@
         <v>113</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -24389,29 +24390,29 @@
         <v>99</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -24451,7 +24452,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>105</v>
@@ -24468,7 +24469,7 @@
         <v>106</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -24482,7 +24483,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -24496,7 +24497,7 @@
         <v>106</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -24510,7 +24511,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -24524,7 +24525,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24538,7 +24539,7 @@
         <v>106</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -24552,7 +24553,7 @@
         <v>106</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -24566,7 +24567,7 @@
         <v>106</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -24580,7 +24581,7 @@
         <v>106</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -24594,7 +24595,7 @@
         <v>106</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -24608,7 +24609,7 @@
         <v>106</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -24622,7 +24623,7 @@
         <v>106</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -24636,7 +24637,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -24650,7 +24651,7 @@
         <v>106</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -24664,24 +24665,24 @@
         <v>106</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -24768,7 +24769,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
